--- a/doc/小组log日志/201708044223-缑曼曼.xlsx
+++ b/doc/小组log日志/201708044223-缑曼曼.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>MessageHandler:利用activemq实现发送、接收数据</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>更新service</t>
+  </si>
+  <si>
+    <t>写需求分析文档</t>
+  </si>
+  <si>
+    <t>完善需求分析文档</t>
+  </si>
+  <si>
+    <t>完成StaffController</t>
+  </si>
+  <si>
+    <t>学习spring mvc的@RequestMapping</t>
+  </si>
+  <si>
+    <t>学习spring MVC的注解</t>
   </si>
 </sst>
 </file>
@@ -117,9 +132,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -131,17 +146,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,66 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -221,6 +193,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -229,8 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,12 +239,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -259,17 +283,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,41 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,16 +542,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +610,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="$A33:$XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="$A38:$XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1328,12 +1343,52 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:2">
-      <c r="A33" s="4">
+    <row r="33" s="1" customFormat="1" spans="1:2">
+      <c r="A33" s="3">
         <v>43613</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3">
+        <v>43614</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>43615</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <v>43619</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <v>43621</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:2">
+      <c r="A38" s="4">
+        <v>43623</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044223-缑曼曼.xlsx
+++ b/doc/小组log日志/201708044223-缑曼曼.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>MessageHandler:利用activemq实现发送、接收数据</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>学习spring MVC的注解</t>
+  </si>
+  <si>
+    <t>学习springMVC 处理模型数据</t>
   </si>
 </sst>
 </file>
@@ -132,9 +135,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -146,6 +149,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -153,142 +292,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,31 +302,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,151 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +493,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,15 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -574,19 +579,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="$A38:$XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1383,12 +1386,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:2">
-      <c r="A38" s="4">
+    <row r="38" s="1" customFormat="1" spans="1:2">
+      <c r="A38" s="3">
         <v>43623</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:2">
+      <c r="A39" s="4">
+        <v>43624</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044223-缑曼曼.xlsx
+++ b/doc/小组log日志/201708044223-缑曼曼.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>MessageHandler:利用activemq实现发送、接收数据</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>学习springMVC 处理模型数据</t>
+  </si>
+  <si>
+    <t>学习springMVC视图解析器</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,29 +153,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,69 +244,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,15 +272,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,14 +293,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,181 +305,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,35 +501,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,16 +524,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +556,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -587,9 +573,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,7 +616,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,124 +625,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1394,12 +1397,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:2">
-      <c r="A39" s="4">
+    <row r="39" s="1" customFormat="1" spans="1:2">
+      <c r="A39" s="3">
         <v>43624</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:2">
+      <c r="A40" s="4">
+        <v>43625</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044223-缑曼曼.xlsx
+++ b/doc/小组log日志/201708044223-缑曼曼.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>MessageHandler:利用activemq实现发送、接收数据</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>学习springMVC视图解析器</t>
+  </si>
+  <si>
+    <t>学习springMVC的CRUD</t>
   </si>
 </sst>
 </file>
@@ -138,10 +141,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,6 +156,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -160,7 +170,122 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,128 +298,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,60 +499,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,6 +520,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -578,6 +542,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +584,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="$A41:$XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1405,12 +1408,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:2">
-      <c r="A40" s="4">
+    <row r="40" s="1" customFormat="1" spans="1:2">
+      <c r="A40" s="3">
         <v>43625</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:2">
+      <c r="A41" s="4">
+        <v>43626</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044223-缑曼曼.xlsx
+++ b/doc/小组log日志/201708044223-缑曼曼.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>MessageHandler:利用activemq实现发送、接收数据</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>学习springMVC的CRUD</t>
+  </si>
+  <si>
+    <t>完成用户需求分析</t>
   </si>
 </sst>
 </file>
@@ -141,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -156,23 +159,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,95 +256,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -308,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,41 +510,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +567,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +622,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A41" sqref="$A41:$XFD41"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1416,11 +1419,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:2">
-      <c r="A41" s="4">
+    <row r="41" s="1" customFormat="1" spans="1:2">
+      <c r="A41" s="3">
         <v>43626</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:2">
+      <c r="A42" s="4">
+        <v>43627</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:2">
+      <c r="A43" s="4">
+        <v>43628</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
     </row>

--- a/doc/小组log日志/201708044223-缑曼曼.xlsx
+++ b/doc/小组log日志/201708044223-缑曼曼.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>MessageHandler:利用activemq实现发送、接收数据</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>完成用户需求分析</t>
+  </si>
+  <si>
+    <t>写web层，完成list视图</t>
+  </si>
+  <si>
+    <t>学习Vue</t>
   </si>
 </sst>
 </file>
@@ -145,9 +151,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,12 +165,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -173,7 +187,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,23 +255,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,83 +307,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,11 +511,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +530,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +546,35 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,41 +608,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -759,13 +765,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1100,7 +1106,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <v>43561</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1108,7 +1114,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>43563</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1116,7 +1122,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43564</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1124,7 +1130,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43565</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1132,7 +1138,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43566</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1140,7 +1146,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43570</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1148,7 +1154,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>43571</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1156,7 +1162,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>43573</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1164,7 +1170,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>43575</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1172,7 +1178,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43578</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1180,7 +1186,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>43580</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1188,7 +1194,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43582</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1196,7 +1202,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43583</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1204,7 +1210,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43584</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1212,7 +1218,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43590</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1220,7 +1226,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>43591</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1228,7 +1234,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43592</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1236,7 +1242,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>43594</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1244,7 +1250,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>43596</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1252,7 +1258,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>43599</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1260,7 +1266,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>43600</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1268,7 +1274,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>43601</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1276,7 +1282,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>43602</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1284,7 +1290,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>43603</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1292,7 +1298,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>43604</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1300,7 +1306,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>43605</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1308,7 +1314,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>43606</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1316,7 +1322,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>43607</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1324,7 +1330,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>43608</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1332,7 +1338,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>43610</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1340,7 +1346,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>43611</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1348,7 +1354,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>43612</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1356,7 +1362,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>43613</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1364,7 +1370,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>43614</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1372,7 +1378,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>43615</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1380,7 +1386,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>43619</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1388,7 +1394,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>43621</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1396,7 +1402,7 @@
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>43623</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1404,7 +1410,7 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>43624</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1412,7 +1418,7 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>43625</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1420,27 +1426,43 @@
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>43626</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:2">
-      <c r="A42" s="4">
+    <row r="42" s="1" customFormat="1" spans="1:2">
+      <c r="A42" s="2">
         <v>43627</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:2">
-      <c r="A43" s="4">
+    <row r="43" s="1" customFormat="1" spans="1:2">
+      <c r="A43" s="2">
         <v>43628</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3">
+        <v>43629</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3">
+        <v>43630</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044223-缑曼曼.xlsx
+++ b/doc/小组log日志/201708044223-缑曼曼.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>MessageHandler:利用activemq实现发送、接收数据</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>学习Vue</t>
+  </si>
+  <si>
+    <t>学习CRUD方法</t>
+  </si>
+  <si>
+    <t>更新web页面</t>
   </si>
 </sst>
 </file>
@@ -150,8 +156,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -172,32 +178,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,15 +246,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,15 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,13 +284,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -268,43 +307,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -317,55 +323,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,126 +504,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +514,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,15 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,35 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -594,17 +606,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +634,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1450,19 +1456,35 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>43629</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>43630</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3">
+        <v>43632</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3">
+        <v>43633</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044223-缑曼曼.xlsx
+++ b/doc/小组log日志/201708044223-缑曼曼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="10335" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>MessageHandler:利用activemq实现发送、接收数据</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>更新web页面</t>
+  </si>
+  <si>
+    <t>编写删改查操作</t>
+  </si>
+  <si>
+    <t>编写增加操作</t>
+  </si>
+  <si>
+    <t>学习简单vue</t>
   </si>
 </sst>
 </file>
@@ -156,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,29 +180,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,22 +256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +295,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -263,52 +310,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,13 +332,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,132 +506,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -486,24 +513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,50 +523,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,6 +541,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -587,6 +561,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +598,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -622,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1472,19 +1481,43 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>43632</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>43633</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3">
+        <v>43634</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3">
+        <v>43635</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3">
+        <v>43640</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044223-缑曼曼.xlsx
+++ b/doc/小组log日志/201708044223-缑曼曼.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10335" windowHeight="8100"/>
+    <workbookView windowWidth="12615" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>MessageHandler:利用activemq实现发送、接收数据</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>学习简单vue</t>
+  </si>
+  <si>
+    <t>vue页面实现罗列、增加、删除功能</t>
+  </si>
+  <si>
+    <t>更新service，增加注释</t>
+  </si>
+  <si>
+    <t>更新用户需求和产品需求规格说明书</t>
+  </si>
+  <si>
+    <t>完善项目</t>
   </si>
 </sst>
 </file>
@@ -165,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -179,6 +191,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -195,7 +222,99 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,113 +329,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -332,181 +344,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,16 +539,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,7 +557,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,21 +573,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,7 +596,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1497,27 +1509,59 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>43634</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>43635</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>43640</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3">
+        <v>43641</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3">
+        <v>43642</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3">
+        <v>43643</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3">
+        <v>43644</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
